--- a/MUSA801_PlanTimeline.xlsx
+++ b/MUSA801_PlanTimeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golet\AppData\Local\Box\Box Edit\Documents\ZvphGFxu+U2_tAGvN3CrJg==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxmasuda-farkas/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0749275-7981-4312-B80D-FA54ABC7C827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E861A1-4B53-D74E-B0C5-90BA00C38F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4DBCC387-CF56-48D8-AEFC-554916BD0775}"/>
+    <workbookView xWindow="30360" yWindow="-6460" windowWidth="23260" windowHeight="13900" xr2:uid="{4DBCC387-CF56-48D8-AEFC-554916BD0775}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>A Development Risk Assessment Tool for Adverse Possession</t>
-  </si>
-  <si>
-    <t>Project Managemant Timeline</t>
   </si>
   <si>
     <t>January</t>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>Project Management Timeline</t>
   </si>
 </sst>
 </file>
@@ -493,20 +493,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,45 +2910,45 @@
   <dimension ref="B1:AM161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" style="1" customWidth="1"/>
     <col min="6" max="39" width="4.6640625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="1"/>
+    <col min="40" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:39" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="67" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="67" t="s">
-        <v>3</v>
       </c>
       <c r="G5" s="67"/>
       <c r="H5" s="67"/>
       <c r="I5" s="67"/>
       <c r="J5" s="67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
@@ -2958,7 +2958,7 @@
       <c r="P5" s="67"/>
       <c r="Q5" s="67"/>
       <c r="R5" s="67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" s="67"/>
       <c r="T5" s="67"/>
@@ -2970,7 +2970,7 @@
       <c r="Z5" s="67"/>
       <c r="AA5" s="67"/>
       <c r="AB5" s="67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="67"/>
       <c r="AD5" s="67"/>
@@ -2980,83 +2980,83 @@
       <c r="AH5" s="67"/>
       <c r="AI5" s="67"/>
       <c r="AJ5" s="67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK5" s="67"/>
       <c r="AL5" s="67"/>
       <c r="AM5" s="67"/>
     </row>
-    <row r="6" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="66">
+    <row r="6" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="68">
         <v>18</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68">
         <v>25</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66" t="s">
+      <c r="I6" s="68"/>
+      <c r="J6" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66" t="s">
+      <c r="M6" s="68"/>
+      <c r="N6" s="68">
+        <v>15</v>
+      </c>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68">
+        <v>15</v>
+      </c>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66">
-        <v>15</v>
-      </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66">
-        <v>15</v>
-      </c>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66">
-        <v>22</v>
-      </c>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66">
-        <v>29</v>
-      </c>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66" t="s">
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68">
+        <v>19</v>
+      </c>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68">
+        <v>26</v>
+      </c>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66">
-        <v>19</v>
-      </c>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66">
-        <v>26</v>
-      </c>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66">
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68">
         <v>10</v>
       </c>
-      <c r="AM6" s="66"/>
+      <c r="AM6" s="68"/>
     </row>
-    <row r="7" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F7" s="12"/>
       <c r="G7" s="5"/>
       <c r="H7" s="15"/>
@@ -3092,13 +3092,13 @@
       <c r="AL7" s="15"/>
       <c r="AM7" s="2"/>
     </row>
-    <row r="8" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="13"/>
@@ -3112,7 +3112,7 @@
       <c r="N8" s="12"/>
       <c r="O8" s="5"/>
       <c r="P8" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="12"/>
@@ -3122,7 +3122,7 @@
       <c r="V8" s="12"/>
       <c r="W8" s="5"/>
       <c r="X8" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
@@ -3134,7 +3134,7 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI8" s="11"/>
       <c r="AJ8" s="12"/>
@@ -3142,7 +3142,7 @@
       <c r="AL8" s="12"/>
       <c r="AM8" s="5"/>
     </row>
-    <row r="9" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="61"/>
@@ -3182,7 +3182,7 @@
       <c r="AL9" s="56"/>
       <c r="AM9" s="5"/>
     </row>
-    <row r="10" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
@@ -3222,13 +3222,13 @@
       <c r="AL10" s="12"/>
       <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="68" t="s">
-        <v>17</v>
+    <row r="11" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="65" t="s">
+        <v>16</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="44"/>
@@ -3266,8 +3266,8 @@
       <c r="AL11" s="12"/>
       <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
+    <row r="12" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="65"/>
       <c r="C12" s="7"/>
       <c r="D12" s="49"/>
       <c r="E12" s="4"/>
@@ -3306,11 +3306,11 @@
       <c r="AL12" s="12"/>
       <c r="AM12" s="5"/>
     </row>
-    <row r="13" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="68"/>
+    <row r="13" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="65"/>
       <c r="C13" s="7"/>
       <c r="D13" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="13"/>
@@ -3348,8 +3348,8 @@
       <c r="AL13" s="12"/>
       <c r="AM13" s="5"/>
     </row>
-    <row r="14" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="68"/>
+    <row r="14" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="65"/>
       <c r="C14" s="7"/>
       <c r="D14" s="49"/>
       <c r="E14" s="4"/>
@@ -3388,11 +3388,11 @@
       <c r="AL14" s="12"/>
       <c r="AM14" s="5"/>
     </row>
-    <row r="15" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="68"/>
+    <row r="15" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="65"/>
       <c r="C15" s="7"/>
       <c r="D15" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="13"/>
@@ -3430,7 +3430,7 @@
       <c r="AL15" s="12"/>
       <c r="AM15" s="5"/>
     </row>
-    <row r="16" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="53"/>
@@ -3470,7 +3470,7 @@
       <c r="AL16" s="56"/>
       <c r="AM16" s="57"/>
     </row>
-    <row r="17" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="49"/>
@@ -3510,13 +3510,13 @@
       <c r="AL17" s="12"/>
       <c r="AM17" s="5"/>
     </row>
-    <row r="18" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="68" t="s">
-        <v>21</v>
+    <row r="18" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="65" t="s">
+        <v>20</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="13"/>
@@ -3554,8 +3554,8 @@
       <c r="AL18" s="12"/>
       <c r="AM18" s="5"/>
     </row>
-    <row r="19" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="68"/>
+    <row r="19" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="65"/>
       <c r="C19" s="7"/>
       <c r="D19" s="49"/>
       <c r="E19" s="4"/>
@@ -3594,11 +3594,11 @@
       <c r="AL19" s="12"/>
       <c r="AM19" s="5"/>
     </row>
-    <row r="20" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="68"/>
+    <row r="20" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="65"/>
       <c r="C20" s="7"/>
       <c r="D20" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="13"/>
@@ -3636,8 +3636,8 @@
       <c r="AL20" s="12"/>
       <c r="AM20" s="5"/>
     </row>
-    <row r="21" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="68"/>
+    <row r="21" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="65"/>
       <c r="C21" s="7"/>
       <c r="D21" s="49"/>
       <c r="E21" s="4"/>
@@ -3676,11 +3676,11 @@
       <c r="AL21" s="12"/>
       <c r="AM21" s="5"/>
     </row>
-    <row r="22" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="68"/>
+    <row r="22" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="65"/>
       <c r="C22" s="7"/>
       <c r="D22" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="13"/>
@@ -3718,7 +3718,7 @@
       <c r="AL22" s="12"/>
       <c r="AM22" s="5"/>
     </row>
-    <row r="23" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="53"/>
@@ -3758,7 +3758,7 @@
       <c r="AL23" s="56"/>
       <c r="AM23" s="5"/>
     </row>
-    <row r="24" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="49"/>
@@ -3798,13 +3798,13 @@
       <c r="AL24" s="12"/>
       <c r="AM24" s="5"/>
     </row>
-    <row r="25" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="68" t="s">
-        <v>25</v>
+    <row r="25" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="65" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="13"/>
@@ -3842,8 +3842,8 @@
       <c r="AL25" s="12"/>
       <c r="AM25" s="5"/>
     </row>
-    <row r="26" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="68"/>
+    <row r="26" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="65"/>
       <c r="C26" s="7"/>
       <c r="D26" s="49"/>
       <c r="E26" s="4"/>
@@ -3882,11 +3882,11 @@
       <c r="AL26" s="12"/>
       <c r="AM26" s="5"/>
     </row>
-    <row r="27" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="68"/>
+    <row r="27" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="65"/>
       <c r="C27" s="7"/>
       <c r="D27" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="13"/>
@@ -3924,8 +3924,8 @@
       <c r="AL27" s="12"/>
       <c r="AM27" s="5"/>
     </row>
-    <row r="28" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="68"/>
+    <row r="28" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="65"/>
       <c r="C28" s="7"/>
       <c r="D28" s="49"/>
       <c r="E28" s="4"/>
@@ -3964,11 +3964,11 @@
       <c r="AL28" s="12"/>
       <c r="AM28" s="5"/>
     </row>
-    <row r="29" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
+    <row r="29" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="65"/>
       <c r="C29" s="7"/>
       <c r="D29" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
@@ -4006,8 +4006,8 @@
       <c r="AL29" s="12"/>
       <c r="AM29" s="5"/>
     </row>
-    <row r="30" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="68"/>
+    <row r="30" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="65"/>
       <c r="C30" s="7"/>
       <c r="D30" s="49"/>
       <c r="E30" s="4"/>
@@ -4046,11 +4046,11 @@
       <c r="AL30" s="12"/>
       <c r="AM30" s="5"/>
     </row>
-    <row r="31" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="68"/>
+    <row r="31" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="65"/>
       <c r="C31" s="7"/>
       <c r="D31" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="13"/>
@@ -4088,7 +4088,7 @@
       <c r="AL31" s="12"/>
       <c r="AM31" s="5"/>
     </row>
-    <row r="32" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="53"/>
@@ -4128,7 +4128,7 @@
       <c r="AL32" s="12"/>
       <c r="AM32" s="5"/>
     </row>
-    <row r="33" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="49"/>
@@ -4168,13 +4168,13 @@
       <c r="AL33" s="12"/>
       <c r="AM33" s="5"/>
     </row>
-    <row r="34" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="68" t="s">
-        <v>30</v>
+    <row r="34" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="13"/>
@@ -4212,8 +4212,8 @@
       <c r="AL34" s="12"/>
       <c r="AM34" s="5"/>
     </row>
-    <row r="35" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="68"/>
+    <row r="35" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="65"/>
       <c r="C35" s="7"/>
       <c r="D35" s="49"/>
       <c r="E35" s="4"/>
@@ -4252,11 +4252,11 @@
       <c r="AL35" s="12"/>
       <c r="AM35" s="5"/>
     </row>
-    <row r="36" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="68"/>
+    <row r="36" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="65"/>
       <c r="C36" s="7"/>
       <c r="D36" s="49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="13"/>
@@ -4294,8 +4294,8 @@
       <c r="AL36" s="12"/>
       <c r="AM36" s="5"/>
     </row>
-    <row r="37" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="68"/>
+    <row r="37" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="65"/>
       <c r="C37" s="7"/>
       <c r="D37" s="49"/>
       <c r="E37" s="4"/>
@@ -4334,11 +4334,11 @@
       <c r="AL37" s="12"/>
       <c r="AM37" s="5"/>
     </row>
-    <row r="38" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="68"/>
+    <row r="38" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="65"/>
       <c r="C38" s="7"/>
       <c r="D38" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="13"/>
@@ -4376,7 +4376,7 @@
       <c r="AL38" s="12"/>
       <c r="AM38" s="5"/>
     </row>
-    <row r="39" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="53"/>
@@ -4416,7 +4416,7 @@
       <c r="AL39" s="56"/>
       <c r="AM39" s="5"/>
     </row>
-    <row r="40" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="49"/>
@@ -4456,13 +4456,13 @@
       <c r="AL40" s="12"/>
       <c r="AM40" s="5"/>
     </row>
-    <row r="41" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="68" t="s">
-        <v>34</v>
+    <row r="41" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="13"/>
@@ -4500,8 +4500,8 @@
       <c r="AL41" s="12"/>
       <c r="AM41" s="5"/>
     </row>
-    <row r="42" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="68"/>
+    <row r="42" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="65"/>
       <c r="C42" s="7"/>
       <c r="D42" s="49"/>
       <c r="E42" s="4"/>
@@ -4540,11 +4540,11 @@
       <c r="AL42" s="12"/>
       <c r="AM42" s="5"/>
     </row>
-    <row r="43" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="68"/>
+    <row r="43" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="65"/>
       <c r="C43" s="7"/>
       <c r="D43" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="13"/>
@@ -4582,8 +4582,8 @@
       <c r="AL43" s="12"/>
       <c r="AM43" s="5"/>
     </row>
-    <row r="44" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68"/>
+    <row r="44" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="65"/>
       <c r="C44" s="7"/>
       <c r="D44" s="49"/>
       <c r="E44" s="4"/>
@@ -4622,11 +4622,11 @@
       <c r="AL44" s="12"/>
       <c r="AM44" s="5"/>
     </row>
-    <row r="45" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68"/>
+    <row r="45" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="65"/>
       <c r="C45" s="7"/>
       <c r="D45" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="13"/>
@@ -4664,7 +4664,7 @@
       <c r="AL45" s="12"/>
       <c r="AM45" s="5"/>
     </row>
-    <row r="46" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="60"/>
@@ -4704,7 +4704,7 @@
       <c r="AL46" s="12"/>
       <c r="AM46" s="5"/>
     </row>
-    <row r="47" spans="2:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="4"/>
@@ -4744,12 +4744,12 @@
       <c r="AL47" s="12"/>
       <c r="AM47" s="5"/>
     </row>
-    <row r="48" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
+    <row r="48" spans="2:39" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="4"/>
       <c r="F48" s="13"/>
       <c r="G48" s="4"/>
@@ -4786,7 +4786,7 @@
       <c r="AL48" s="12"/>
       <c r="AM48" s="5"/>
     </row>
-    <row r="49" spans="4:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="12"/>
       <c r="H49" s="12"/>
       <c r="J49" s="12"/>
@@ -4806,7 +4806,7 @@
       <c r="AJ49" s="12"/>
       <c r="AL49" s="12"/>
     </row>
-    <row r="50" spans="4:39" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:39" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F50" s="5"/>
       <c r="H50" s="5"/>
       <c r="J50" s="5"/>
@@ -4826,197 +4826,214 @@
       <c r="AJ50" s="5"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="51" spans="4:39" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:39" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D51" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
-      <c r="G51" s="65">
+      <c r="G51" s="69">
         <v>1</v>
       </c>
-      <c r="H51" s="65"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3">
         <v>2</v>
       </c>
-      <c r="K51" s="65">
+      <c r="K51" s="69">
         <v>3</v>
       </c>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65">
+      <c r="L51" s="69"/>
+      <c r="M51" s="69">
         <v>4</v>
       </c>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65">
+      <c r="N51" s="69"/>
+      <c r="O51" s="69">
         <v>5</v>
       </c>
-      <c r="P51" s="65"/>
-      <c r="Q51" s="65">
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69">
         <v>6</v>
       </c>
-      <c r="R51" s="65"/>
-      <c r="S51" s="65">
+      <c r="R51" s="69"/>
+      <c r="S51" s="69">
         <v>7</v>
       </c>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65">
+      <c r="T51" s="69"/>
+      <c r="U51" s="69">
         <v>8</v>
       </c>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65">
+      <c r="V51" s="69"/>
+      <c r="W51" s="69">
         <v>9</v>
       </c>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="65">
+      <c r="X51" s="69"/>
+      <c r="Y51" s="69">
         <v>10</v>
       </c>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65">
+      <c r="Z51" s="69"/>
+      <c r="AA51" s="69">
         <v>11</v>
       </c>
-      <c r="AB51" s="65"/>
-      <c r="AC51" s="65">
+      <c r="AB51" s="69"/>
+      <c r="AC51" s="69">
         <v>12</v>
       </c>
-      <c r="AD51" s="65"/>
-      <c r="AE51" s="65">
+      <c r="AD51" s="69"/>
+      <c r="AE51" s="69">
         <v>13</v>
       </c>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="65">
+      <c r="AF51" s="69"/>
+      <c r="AG51" s="69">
         <v>14</v>
       </c>
-      <c r="AH51" s="65"/>
-      <c r="AI51" s="65">
+      <c r="AH51" s="69"/>
+      <c r="AI51" s="69">
         <v>15</v>
       </c>
-      <c r="AJ51" s="65"/>
-      <c r="AK51" s="65">
+      <c r="AJ51" s="69"/>
+      <c r="AK51" s="69">
         <v>16</v>
       </c>
-      <c r="AL51" s="65"/>
+      <c r="AL51" s="69"/>
       <c r="AM51" s="64"/>
     </row>
-    <row r="52" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="4:39" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="4:39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
     <mergeCell ref="R5:AA5"/>
     <mergeCell ref="AB5:AI5"/>
     <mergeCell ref="AJ5:AM5"/>
@@ -5031,29 +5048,12 @@
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J5:Q5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AA51:AB51"/>
-    <mergeCell ref="AC51:AD51"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B34:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
